--- a/data/trans_camb/P54_A_6_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_6_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,95</t>
+          <t>46,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,01</t>
+          <t>37,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,46</t>
+          <t>28,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43,19</t>
+          <t>26,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,08</t>
+          <t>37,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,22</t>
+          <t>32,31</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 44,19</t>
+          <t>29,22; 68,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,12; 47,07</t>
+          <t>17,84; 62,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,84; 48,82</t>
+          <t>12,34; 47,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,2; 55,05</t>
+          <t>8,56; 45,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,14; 43,27</t>
+          <t>25,49; 52,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,66; 47,28</t>
+          <t>18,98; 49,56</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>62,05%</t>
+          <t>102,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64,33%</t>
+          <t>83,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>74,81%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>41,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>69,37%</t>
+          <t>69,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>78,06%</t>
+          <t>59,86%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,28; 124,87</t>
+          <t>48,7; 287,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,77; 138,04</t>
+          <t>29,35; 241,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,24; 126,09</t>
+          <t>16,97; 100,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,04; 141,91</t>
+          <t>11,82; 96,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,28; 107,65</t>
+          <t>39,55; 132,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,03; 120,45</t>
+          <t>29,88; 123,31</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>38,26</t>
+          <t>46,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35,68</t>
+          <t>37,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>47,11</t>
+          <t>51,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>49,26</t>
+          <t>50,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,82</t>
+          <t>48,99</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,48</t>
+          <t>44,16</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,94; 46,83</t>
+          <t>34,49; 56,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,25; 44,04</t>
+          <t>23,72; 48,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,61; 53,84</t>
+          <t>42,38; 59,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>41,96; 55,93</t>
+          <t>41,67; 60,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,71; 49,14</t>
+          <t>40,58; 55,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,9; 48,32</t>
+          <t>35,94; 51,42</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>127,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91,76%</t>
+          <t>102,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>123,75%</t>
+          <t>139,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>129,38%</t>
+          <t>138,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>111,33%</t>
+          <t>133,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>110,46%</t>
+          <t>120,66%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,18; 141,06</t>
+          <t>73,46; 194,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,07; 134,65</t>
+          <t>51,53; 167,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,63; 162,99</t>
+          <t>96,71; 195,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>97,57; 171,62</t>
+          <t>95,13; 200,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,57; 140,85</t>
+          <t>93,78; 174,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,59; 140,7</t>
+          <t>83,79; 161,0</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>44,3</t>
+          <t>50,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>41,99</t>
+          <t>43,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>33,06</t>
+          <t>32,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>38,13</t>
+          <t>38,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,32</t>
+          <t>40,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,98</t>
+          <t>40,39</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,54; 53,59</t>
+          <t>38,85; 60,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,38; 51,71</t>
+          <t>29,83; 54,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,64; 41,93</t>
+          <t>21,48; 41,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,37; 45,21</t>
+          <t>27,78; 47,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,04; 44,75</t>
+          <t>32,45; 47,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,28; 46,25</t>
+          <t>32,6; 47,63</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>188,56%</t>
+          <t>253,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>178,76%</t>
+          <t>216,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>80,99%</t>
+          <t>80,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>117,04%</t>
+          <t>129,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>122,09%</t>
+          <t>129,71%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>118,15; 293,32</t>
+          <t>145,89; 397,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>106,97; 276,96</t>
+          <t>114,24; 360,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>53,43; 120,19</t>
+          <t>46,39; 123,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>62,46; 126,5</t>
+          <t>59,6; 139,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>84,56; 152,33</t>
+          <t>90,98; 182,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>90,57; 159,83</t>
+          <t>92,78; 180,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>38,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>37,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>44,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>40,96</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,62; 45,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,35; 42,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,92; 45,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>39,92; 49,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,14; 43,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,11; 44,75</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>111,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>106,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>99,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>109,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>105,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>108,24%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>82,35; 144,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,23; 137,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>79,49; 124,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>89,7; 134,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>87,4; 122,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>91,4; 126,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>48,29</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>39,77</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>40,63</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>42,72</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>44,27</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>41,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>40,4; 56,07</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>30,56; 47,38</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>34,82; 46,56</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>36,25; 48,29</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>38,52; 48,74</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>35,56; 45,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>154,01%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>126,84%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>98,35%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>103,41%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>120,94%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>112,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>107,93; 215,15</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>83,92; 179,8</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>75,61; 124,6</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>79,46; 131,3</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>95,18; 145,8</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>88,57; 137,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_6_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_6_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>46,58</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>37,6</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>28,36</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>26,37</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>37,63</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>32,31</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>43.83390416540088</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>36.30257974620073</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>28.29662690424001</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>25.23244298461548</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>36.28946883953924</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>31.24643327726611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>29,22; 68,96</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>17,84; 62,7</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>12,34; 47,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>8,56; 45,76</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>25,49; 52,38</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>18,98; 49,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>24.89190497628665</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>16.34183961454814</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>12.35608804183194</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>6.357556655450902</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>23.77716179878814</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>17.2616011918645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>102,95%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>83,1%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>45,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>41,85%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>69,72%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>59,86%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>65.63941909781069</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>62.48675178513972</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>47.08426747671687</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>44.49221966608385</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>51.77240600029474</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>48.81236013568074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>48,7; 287,34</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>29,35; 241,84</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>16,97; 100,76</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>11,82; 96,41</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>39,55; 132,7</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>29,88; 123,31</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.9687235656037728</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.8022822781118626</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.4489921930334417</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.4003717457064186</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.6724232826407207</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.5789786929099703</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>46,65</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>37,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>51,19</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>50,84</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>48,99</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>44,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.4303630538469186</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.2666549557439576</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.169653496988048</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.09107639177300764</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.3743628803678924</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.2721803333171206</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>34,49; 56,81</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>23,72; 48,66</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>42,38; 59,16</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>41,67; 60,05</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>40,58; 55,6</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>35,94; 51,42</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>2.704680197962192</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>2.344933111355984</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.013830325971557</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.9383288290445473</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.292700892911919</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.201537577726712</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>127,96%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>102,71%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>139,34%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>138,39%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>133,85%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>120,66%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>44.99375238382051</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>36.49951567457519</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>51.9836898023198</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>51.25499606522014</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>48.62882951263656</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>43.92368539625694</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>73,46; 194,03</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>51,53; 167,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>96,71; 195,22</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>95,13; 200,02</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>93,78; 174,98</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>83,79; 161,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>31.89437574740765</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>22.87097831769276</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>43.17081090431277</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>42.4857082796986</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>39.83218645323442</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>35.82633378695278</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>50,57</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>43,06</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>32,23</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>38,19</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>40,45</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>40,39</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>55.81514759593013</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>47.56932363726044</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>59.84875642839304</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>60.39392444616298</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>54.99443649522618</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>51.42003887962453</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>38,85; 60,66</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>29,83; 54,06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>21,48; 41,63</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>27,78; 47,81</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>32,45; 47,61</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>32,6; 47,63</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.234068438891393</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.001092328209819</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.415144412379389</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.395307288960219</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.328623153234788</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.200070533832259</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>253,85%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>216,16%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>80,16%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>94,96%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>129,92%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>129,71%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.6726146321609999</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.4805457054825473</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.9874747255122654</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.9698825129598962</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.9287262318427004</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.8323414346173459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>145,89; 397,53</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>114,24; 360,28</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>46,39; 123,12</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>59,6; 139,07</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>90,98; 182,25</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>92,78; 180,32</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.894685675164423</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.604627807816419</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.98648865253634</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>2.022027783867848</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.757456479817613</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.609435591228346</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +928,332 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>52.86744896884199</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>43.77825082987891</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>32.36816951713821</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>38.6146145652519</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>41.53911695522525</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>40.9250148352079</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>40.71501371581366</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>30.51192569347989</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>21.62894376853543</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>28.27261597174201</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>32.97330269609049</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>32.91770268541114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>63.23433887603919</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>54.78479442840399</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>42.18961923537973</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>48.09777298957697</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>48.60171801250505</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>48.04836266173748</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>2.653875271199554</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>2.197609674002998</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.8048867672011237</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.9602147031418218</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.334064184194439</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1.314341770628545</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>48,29</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>39,77</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>40,63</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>42,72</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>44,27</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>41,3</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>1.501048540871241</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1.161040515078458</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.4662313501551105</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0.6119813815754318</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.9318128956433572</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.9379115902497183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>40,4; 56,07</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>30,56; 47,38</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>34,82; 46,56</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>36,25; 48,29</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>38,52; 48,74</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>35,56; 45,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>4.0825238401207</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>3.644093443561356</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.240714190514748</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1.403389712493511</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.868491643216949</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.82537112798585</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>154,01%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>126,84%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>98,35%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>103,41%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>120,94%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>112,82%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>47.81615066673834</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>39.35047558735174</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>41.15234993471136</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>43.02307366995875</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>44.31381978998554</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>41.30090081350159</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>107,93; 215,15</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>83,92; 179,8</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>75,61; 124,6</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>79,46; 131,3</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>95,18; 145,8</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>88,57; 137,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>39.29819525840304</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>30.02519676674175</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>35.34384117624052</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>36.57099180355965</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>38.63338668470283</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>35.56778580528071</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>55.36882855410353</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>46.947626946866</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>47.10629084900779</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>48.60510519041748</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>49.10833556940126</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>45.92979183298712</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.525120605378985</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.255103564651424</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.9960852714597923</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1.041365804955607</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>1.210629702316637</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>1.128318377748106</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>1.065905913559365</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.8209328255194954</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.7729671988016437</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0.7966314522443101</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.9631502142804975</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0.8891022571624467</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>2.13282278992664</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.770675006051994</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.272058474033142</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1.321099644739344</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>1.465713727654398</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1.375805386892042</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
